--- a/services/web/input/users.xlsx
+++ b/services/web/input/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="195">
   <si>
     <t>key</t>
   </si>
@@ -43,532 +43,535 @@
     <t>updatedDate</t>
   </si>
   <si>
-    <t>clinerichard@example.org</t>
-  </si>
-  <si>
-    <t>wayne82@example.org</t>
-  </si>
-  <si>
-    <t>heatherstark@example.net</t>
-  </si>
-  <si>
-    <t>charlesgates@example.com</t>
-  </si>
-  <si>
-    <t>dcurtis@example.org</t>
-  </si>
-  <si>
-    <t>espinozaclifford@example.com</t>
-  </si>
-  <si>
-    <t>lopezjohn@example.org</t>
-  </si>
-  <si>
-    <t>john54@example.org</t>
-  </si>
-  <si>
-    <t>jason89@example.net</t>
-  </si>
-  <si>
-    <t>vjones@example.org</t>
-  </si>
-  <si>
-    <t>mreynolds@example.com</t>
-  </si>
-  <si>
-    <t>mcdanielbrian@example.net</t>
-  </si>
-  <si>
-    <t>waynepowell@example.com</t>
-  </si>
-  <si>
-    <t>lunajeremy@example.com</t>
-  </si>
-  <si>
-    <t>johnsonjerry@example.org</t>
-  </si>
-  <si>
-    <t>simmonsmelissa@example.org</t>
-  </si>
-  <si>
-    <t>monica39@example.net</t>
-  </si>
-  <si>
-    <t>gordonrenee@example.com</t>
-  </si>
-  <si>
-    <t>mario39@example.com</t>
-  </si>
-  <si>
-    <t>jonessteven@example.net</t>
-  </si>
-  <si>
-    <t>terriclark@example.net</t>
-  </si>
-  <si>
-    <t>annamurphy@example.org</t>
-  </si>
-  <si>
-    <t>terrancewiley@example.net</t>
-  </si>
-  <si>
-    <t>penny35@example.org</t>
-  </si>
-  <si>
-    <t>jason06@example.com</t>
-  </si>
-  <si>
-    <t>efitzgerald@example.org</t>
-  </si>
-  <si>
-    <t>maria93@example.com</t>
-  </si>
-  <si>
-    <t>oconner@example.net</t>
-  </si>
-  <si>
-    <t>davishenry@example.com</t>
-  </si>
-  <si>
-    <t>thenderson@example.org</t>
-  </si>
-  <si>
-    <t>darren15@example.net</t>
-  </si>
-  <si>
-    <t>joseph56@example.net</t>
-  </si>
-  <si>
-    <t>daniel49@example.net</t>
-  </si>
-  <si>
-    <t>mitchell77@example.com</t>
-  </si>
-  <si>
-    <t>hicksjeffrey@example.org</t>
-  </si>
-  <si>
-    <t>ljames@example.org</t>
-  </si>
-  <si>
-    <t>ghall@example.net</t>
-  </si>
-  <si>
-    <t>iweaver@example.org</t>
-  </si>
-  <si>
-    <t>tylergeorge@example.net</t>
-  </si>
-  <si>
-    <t>gtaylor@example.net</t>
-  </si>
-  <si>
-    <t>ashleyweaver@example.org</t>
-  </si>
-  <si>
-    <t>laurie49@example.com</t>
-  </si>
-  <si>
-    <t>wanda82@example.net</t>
-  </si>
-  <si>
-    <t>zholmes@example.net</t>
-  </si>
-  <si>
-    <t>vpacheco@example.com</t>
-  </si>
-  <si>
-    <t>smithtammy@example.com</t>
-  </si>
-  <si>
-    <t>6$o&amp;5Exxvh</t>
-  </si>
-  <si>
-    <t>$bjFSeXY&amp;2</t>
-  </si>
-  <si>
-    <t>MnASjM8&amp;)7</t>
-  </si>
-  <si>
-    <t>X0&amp;vWe0z+H</t>
-  </si>
-  <si>
-    <t>sn0IF_e#__</t>
-  </si>
-  <si>
-    <t>M!1VOGt$X)</t>
-  </si>
-  <si>
-    <t>OFx1sAfJ)$</t>
-  </si>
-  <si>
-    <t>4kR7ZZSH#G</t>
-  </si>
-  <si>
-    <t>(p^6WbXH2e</t>
-  </si>
-  <si>
-    <t>@1QCQrCy(e</t>
-  </si>
-  <si>
-    <t>U&amp;7vI^er$y</t>
-  </si>
-  <si>
-    <t>x&amp;fvhUwm@7</t>
-  </si>
-  <si>
-    <t>_uq#xIlgU5</t>
-  </si>
-  <si>
-    <t>^j&amp;DM9SniJ</t>
-  </si>
-  <si>
-    <t>f*5Dc7VnRD</t>
-  </si>
-  <si>
-    <t>*o9GHncDp9</t>
-  </si>
-  <si>
-    <t>@5_GlsUP@y</t>
-  </si>
-  <si>
-    <t>_njtddSK4h</t>
-  </si>
-  <si>
-    <t>J!%6M*kuos</t>
-  </si>
-  <si>
-    <t>_$ZNFruq7Q</t>
-  </si>
-  <si>
-    <t>DR9LnJ(6z&amp;</t>
-  </si>
-  <si>
-    <t>Ap6*xUqa^%</t>
-  </si>
-  <si>
-    <t>#H+w3iVqJ&amp;</t>
-  </si>
-  <si>
-    <t>+E5VjpG$$a</t>
-  </si>
-  <si>
-    <t>1HIa5Wpt#b</t>
-  </si>
-  <si>
-    <t>!4ERgod%)5</t>
-  </si>
-  <si>
-    <t>^7rLgJp#B4</t>
-  </si>
-  <si>
-    <t>!@wgU%Piq1</t>
-  </si>
-  <si>
-    <t>8UuY#a44@#</t>
-  </si>
-  <si>
-    <t>&amp;!4D%fDo&amp;A</t>
-  </si>
-  <si>
-    <t>)0ugfSn8hn</t>
-  </si>
-  <si>
-    <t>08Hq9hae%H</t>
-  </si>
-  <si>
-    <t>9kZcjXW3@o</t>
-  </si>
-  <si>
-    <t>Q3s1Hqpd2%</t>
-  </si>
-  <si>
-    <t>3$B305VtQs</t>
-  </si>
-  <si>
-    <t>#973RQtDIg</t>
-  </si>
-  <si>
-    <t>9IGg53Ka*A</t>
-  </si>
-  <si>
-    <t>+5UH5ioRx7</t>
-  </si>
-  <si>
-    <t>F#4WL8g5la</t>
-  </si>
-  <si>
-    <t>Ky^5Aa)RM+</t>
-  </si>
-  <si>
-    <t>$4Ypi25pOY</t>
-  </si>
-  <si>
-    <t>+%JLU19b6d</t>
-  </si>
-  <si>
-    <t>j83!L6Dd!i</t>
-  </si>
-  <si>
-    <t>^6H&amp;MEgx0n</t>
-  </si>
-  <si>
-    <t>c1pSWZ0N!0</t>
-  </si>
-  <si>
-    <t>gsk4Xvb!)5</t>
-  </si>
-  <si>
-    <t>Wanda</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Olivia</t>
-  </si>
-  <si>
-    <t>Sheila</t>
+    <t>qpage@example.net</t>
+  </si>
+  <si>
+    <t>michaelrobertson@example.com</t>
+  </si>
+  <si>
+    <t>rgraves@example.org</t>
+  </si>
+  <si>
+    <t>zachary96@example.com</t>
+  </si>
+  <si>
+    <t>destinypacheco@example.net</t>
+  </si>
+  <si>
+    <t>reeserobert@example.net</t>
+  </si>
+  <si>
+    <t>cruzbrittany@example.com</t>
+  </si>
+  <si>
+    <t>cherylbriggs@example.org</t>
+  </si>
+  <si>
+    <t>melissahenson@example.net</t>
+  </si>
+  <si>
+    <t>lmartin@example.net</t>
+  </si>
+  <si>
+    <t>lori94@example.com</t>
+  </si>
+  <si>
+    <t>jessica91@example.com</t>
+  </si>
+  <si>
+    <t>martinjustin@example.net</t>
+  </si>
+  <si>
+    <t>shane49@example.com</t>
+  </si>
+  <si>
+    <t>jessica42@example.org</t>
+  </si>
+  <si>
+    <t>timothygutierrez@example.com</t>
+  </si>
+  <si>
+    <t>tbrown@example.net</t>
+  </si>
+  <si>
+    <t>aobrien@example.net</t>
+  </si>
+  <si>
+    <t>nathansimon@example.net</t>
+  </si>
+  <si>
+    <t>gilbertjames@example.com</t>
+  </si>
+  <si>
+    <t>hcollins@example.com</t>
+  </si>
+  <si>
+    <t>valeriecamacho@example.net</t>
+  </si>
+  <si>
+    <t>marcus42@example.org</t>
+  </si>
+  <si>
+    <t>valdezangela@example.com</t>
+  </si>
+  <si>
+    <t>stephen48@example.org</t>
+  </si>
+  <si>
+    <t>jasongrant@example.com</t>
+  </si>
+  <si>
+    <t>jenniferolson@example.org</t>
+  </si>
+  <si>
+    <t>mary39@example.net</t>
+  </si>
+  <si>
+    <t>virginiasantana@example.org</t>
+  </si>
+  <si>
+    <t>blackwelljoshua@example.org</t>
+  </si>
+  <si>
+    <t>kevin77@example.org</t>
+  </si>
+  <si>
+    <t>rachelporter@example.net</t>
+  </si>
+  <si>
+    <t>joshuastewart@example.org</t>
+  </si>
+  <si>
+    <t>kevin93@example.org</t>
+  </si>
+  <si>
+    <t>psmith@example.net</t>
+  </si>
+  <si>
+    <t>christopher08@example.org</t>
+  </si>
+  <si>
+    <t>austin06@example.com</t>
+  </si>
+  <si>
+    <t>sarahbell@example.com</t>
+  </si>
+  <si>
+    <t>peterpierce@example.com</t>
+  </si>
+  <si>
+    <t>daniel04@example.net</t>
+  </si>
+  <si>
+    <t>lynchmargaret@example.net</t>
+  </si>
+  <si>
+    <t>kevinlynch@example.org</t>
+  </si>
+  <si>
+    <t>robert45@example.net</t>
+  </si>
+  <si>
+    <t>charles89@example.net</t>
+  </si>
+  <si>
+    <t>benjamindennis@example.org</t>
+  </si>
+  <si>
+    <t>teresaadams@example.com</t>
+  </si>
+  <si>
+    <t>33aAgkN!*8</t>
+  </si>
+  <si>
+    <t>D8DQETuI+4</t>
+  </si>
+  <si>
+    <t>#x089KHm09</t>
+  </si>
+  <si>
+    <t>*@GHXx&amp;c97</t>
+  </si>
+  <si>
+    <t>5%11QNx+wg</t>
+  </si>
+  <si>
+    <t>$Eb9LDCxi(</t>
+  </si>
+  <si>
+    <t>2*NJ5!vE&amp;0</t>
+  </si>
+  <si>
+    <t>B!622oDylI</t>
+  </si>
+  <si>
+    <t>tt+8W)Oir*</t>
+  </si>
+  <si>
+    <t>&amp;!9ZI7Zgs+</t>
+  </si>
+  <si>
+    <t>_7fTKXIt)N</t>
+  </si>
+  <si>
+    <t>)g7dALgfTN</t>
+  </si>
+  <si>
+    <t>^o79tX(poi</t>
+  </si>
+  <si>
+    <t>xk+0FLCob2</t>
+  </si>
+  <si>
+    <t>cSP8vx1tN@</t>
+  </si>
+  <si>
+    <t>(8_Gt9Iii%</t>
+  </si>
+  <si>
+    <t>d4XScz&amp;o!J</t>
+  </si>
+  <si>
+    <t>pH4Rs+Ff(*</t>
+  </si>
+  <si>
+    <t>H%7V3OUci2</t>
+  </si>
+  <si>
+    <t>Gi6OmgoY!i</t>
+  </si>
+  <si>
+    <t>@Rz&amp;yIjx&amp;3</t>
+  </si>
+  <si>
+    <t>&amp;R^IYAQe1C</t>
+  </si>
+  <si>
+    <t>(9GtUSs!4q</t>
+  </si>
+  <si>
+    <t>am4Wt#Lh#$</t>
+  </si>
+  <si>
+    <t>R2qO)H)m_f</t>
+  </si>
+  <si>
+    <t>^9#x9Xa%PW</t>
+  </si>
+  <si>
+    <t>_0LYjyAXp1</t>
+  </si>
+  <si>
+    <t>&amp;53Thxep1d</t>
+  </si>
+  <si>
+    <t>&amp;#R!5Slq*i</t>
+  </si>
+  <si>
+    <t>X9LZ^eMZ)b</t>
+  </si>
+  <si>
+    <t>9!8AkSmh)D</t>
+  </si>
+  <si>
+    <t>$y3bVf)69y</t>
+  </si>
+  <si>
+    <t>i%f7BsN%d+</t>
+  </si>
+  <si>
+    <t>V_8vUL(Qgi</t>
+  </si>
+  <si>
+    <t>07nTo@+l*O</t>
+  </si>
+  <si>
+    <t>P9cWT%my$2</t>
+  </si>
+  <si>
+    <t>$ibO^Gddw5</t>
+  </si>
+  <si>
+    <t>32JG)Ped@*</t>
+  </si>
+  <si>
+    <t>!6G1VHgt!b</t>
+  </si>
+  <si>
+    <t>h6iCljHA#T</t>
+  </si>
+  <si>
+    <t>(OO8lA_Jw0</t>
+  </si>
+  <si>
+    <t>@gw83UNo8V</t>
+  </si>
+  <si>
+    <t>jn8IoC(b#!</t>
+  </si>
+  <si>
+    <t>#Q78CGkerF</t>
+  </si>
+  <si>
+    <t>(U0(JCj)Hg</t>
+  </si>
+  <si>
+    <t>Vg8W*kV80$</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Connie</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Tonya</t>
+  </si>
+  <si>
+    <t>Rhonda</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Katelyn</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Edward</t>
   </si>
   <si>
     <t>John</t>
   </si>
   <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Caitlin</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t>Kevin</t>
   </si>
   <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Erica</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Monique</t>
-  </si>
-  <si>
-    <t>Monica</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>Marissa</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Felicia</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Becky</t>
-  </si>
-  <si>
-    <t>Beth</t>
-  </si>
-  <si>
-    <t>Connor</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Jacqueline</t>
-  </si>
-  <si>
-    <t>Margaret</t>
+    <t>Greg</t>
   </si>
   <si>
     <t>Jessica</t>
   </si>
   <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>Tamara</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Shawn</t>
-  </si>
-  <si>
-    <t>Paige</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Alvarado</t>
-  </si>
-  <si>
-    <t>Stanton</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Spears</t>
-  </si>
-  <si>
-    <t>Contreras</t>
-  </si>
-  <si>
-    <t>Keller</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Montgomery</t>
-  </si>
-  <si>
-    <t>Rogers</t>
-  </si>
-  <si>
-    <t>Barnett</t>
-  </si>
-  <si>
-    <t>Harvey</t>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Kidd</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>Booker</t>
   </si>
   <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>Palmer</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Peters</t>
-  </si>
-  <si>
-    <t>Skinner</t>
-  </si>
-  <si>
-    <t>Bowman</t>
-  </si>
-  <si>
-    <t>Harris</t>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Tate</t>
+  </si>
+  <si>
+    <t>Cantu</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Meza</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Steele</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>Barnes</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Conner</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Underwood</t>
+  </si>
+  <si>
+    <t>Mendez</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Curry</t>
   </si>
   <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Nichols</t>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Peck</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Norton</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Osborne</t>
-  </si>
-  <si>
-    <t>Graves</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
-    <t>Owens</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Serrano</t>
-  </si>
-  <si>
-    <t>Weber</t>
+    <t>Fleming</t>
   </si>
   <si>
     <t>Manager</t>
@@ -595,7 +598,7 @@
     <t>PE&amp;DEBT</t>
   </si>
   <si>
-    <t>07/12/2023, 09:33:15</t>
+    <t>07/13/2023, 15:27:13</t>
   </si>
 </sst>
 </file>
@@ -1005,16 +1008,16 @@
         <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1028,22 +1031,22 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1057,22 +1060,22 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1086,22 +1089,22 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1115,22 +1118,22 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1144,22 +1147,22 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1173,22 +1176,22 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1202,22 +1205,22 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1231,22 +1234,22 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1260,22 +1263,22 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1289,22 +1292,22 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1324,16 +1327,16 @@
         <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1353,16 +1356,16 @@
         <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1382,16 +1385,16 @@
         <v>155</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1411,16 +1414,16 @@
         <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1440,16 +1443,16 @@
         <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1469,16 +1472,16 @@
         <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1498,16 +1501,16 @@
         <v>159</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1527,16 +1530,16 @@
         <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1556,16 +1559,16 @@
         <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1585,16 +1588,16 @@
         <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1614,16 +1617,16 @@
         <v>163</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1640,19 +1643,19 @@
         <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1669,19 +1672,19 @@
         <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1698,19 +1701,19 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1724,22 +1727,22 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1753,22 +1756,22 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1782,22 +1785,22 @@
         <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1811,22 +1814,22 @@
         <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1840,22 +1843,22 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
         <v>170</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1869,22 +1872,22 @@
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1898,22 +1901,22 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1927,22 +1930,22 @@
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1956,22 +1959,22 @@
         <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1985,22 +1988,22 @@
         <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2014,22 +2017,22 @@
         <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2043,22 +2046,22 @@
         <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2072,22 +2075,22 @@
         <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2101,22 +2104,22 @@
         <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2130,22 +2133,22 @@
         <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2162,19 +2165,19 @@
         <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2188,22 +2191,22 @@
         <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2217,22 +2220,22 @@
         <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2246,22 +2249,22 @@
         <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2278,16 +2281,16 @@
         <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2304,16 +2307,16 @@
         <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
